--- a/3_Data extraction/3_1_Code_manual/code_example.xlsx
+++ b/3_Data extraction/3_1_Code_manual/code_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\girt\Desktop\BTS_sample_stage1_ submit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuwe\Desktop\大团队科学样本代表性\BTS_Sample_Stage1_RR\BTS_Sample_Stage1_RR\3_Data extraction\3_1_Code_manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9705C295-C63C-4395-B2A1-9B7241517086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F556D185-FFC3-44B5-B1ED-CB9339762337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="14586" windowHeight="9186" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="16180" windowHeight="9460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PS2014" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>Title</t>
   </si>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>to those reported by Oosterhof and Todorov—suggested that the valence–dominance model of social perception of faces generalizes well across world regions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Dopamine D4 Receptor Gene (DRD4) Moderates Cultural Difference in Independent Versus Interdependent Social Orientation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +232,22 @@
   </si>
   <si>
     <t>European American 194; Asian-born Asian 204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global population</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_population_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparison_sample_&amp;_target population</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,41 +627,41 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="2" max="2" width="39.29296875" customWidth="1"/>
-    <col min="3" max="3" width="10.46875" customWidth="1"/>
-    <col min="4" max="4" width="20.234375" customWidth="1"/>
+    <col min="2" max="2" width="39.30078125" customWidth="1"/>
+    <col min="3" max="3" width="10.4765625" customWidth="1"/>
+    <col min="4" max="4" width="20.21484375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.87890625" customWidth="1"/>
-    <col min="7" max="7" width="11.5859375" customWidth="1"/>
-    <col min="8" max="8" width="16.52734375" customWidth="1"/>
-    <col min="9" max="9" width="11.76171875" customWidth="1"/>
-    <col min="10" max="10" width="17.5859375" customWidth="1"/>
-    <col min="11" max="11" width="17.41015625" customWidth="1"/>
-    <col min="12" max="12" width="10.29296875" customWidth="1"/>
-    <col min="13" max="13" width="15.234375" customWidth="1"/>
-    <col min="14" max="14" width="10.9375" customWidth="1"/>
-    <col min="15" max="15" width="12.87890625" customWidth="1"/>
-    <col min="16" max="16" width="16.29296875" customWidth="1"/>
-    <col min="17" max="17" width="23.76171875" customWidth="1"/>
-    <col min="18" max="18" width="19.703125" customWidth="1"/>
-    <col min="19" max="19" width="24.52734375" customWidth="1"/>
-    <col min="20" max="20" width="11.8203125" customWidth="1"/>
-    <col min="21" max="21" width="14.3515625" customWidth="1"/>
-    <col min="22" max="22" width="17.64453125" customWidth="1"/>
-    <col min="23" max="23" width="20.05859375" customWidth="1"/>
-    <col min="24" max="24" width="25.41015625" customWidth="1"/>
-    <col min="25" max="25" width="17.41015625" customWidth="1"/>
-    <col min="26" max="26" width="33.41015625" customWidth="1"/>
-    <col min="27" max="27" width="28.9375" customWidth="1"/>
-    <col min="29" max="29" width="18.3515625" customWidth="1"/>
-    <col min="30" max="30" width="25.46875" customWidth="1"/>
-    <col min="31" max="31" width="27.41015625" customWidth="1"/>
-    <col min="32" max="32" width="20.46875" customWidth="1"/>
+    <col min="6" max="6" width="10.8671875" customWidth="1"/>
+    <col min="7" max="7" width="11.5625" customWidth="1"/>
+    <col min="8" max="8" width="16.51953125" customWidth="1"/>
+    <col min="9" max="9" width="11.73828125" customWidth="1"/>
+    <col min="10" max="10" width="17.5625" customWidth="1"/>
+    <col min="11" max="11" width="17.390625" customWidth="1"/>
+    <col min="12" max="12" width="10.30078125" customWidth="1"/>
+    <col min="13" max="13" width="15.21484375" customWidth="1"/>
+    <col min="14" max="14" width="10.953125" customWidth="1"/>
+    <col min="15" max="15" width="12.8671875" customWidth="1"/>
+    <col min="16" max="16" width="16.30078125" customWidth="1"/>
+    <col min="17" max="17" width="23.73828125" customWidth="1"/>
+    <col min="18" max="18" width="19.6953125" customWidth="1"/>
+    <col min="19" max="19" width="24.51953125" customWidth="1"/>
+    <col min="20" max="20" width="11.82421875" customWidth="1"/>
+    <col min="21" max="21" width="14.34765625" customWidth="1"/>
+    <col min="22" max="22" width="17.6484375" customWidth="1"/>
+    <col min="23" max="23" width="20.04296875" customWidth="1"/>
+    <col min="24" max="24" width="25.390625" customWidth="1"/>
+    <col min="25" max="25" width="17.390625" customWidth="1"/>
+    <col min="26" max="26" width="33.390625" customWidth="1"/>
+    <col min="27" max="27" width="28.953125" customWidth="1"/>
+    <col min="29" max="29" width="18.34765625" customWidth="1"/>
+    <col min="30" max="30" width="25.4765625" customWidth="1"/>
+    <col min="31" max="31" width="27.390625" customWidth="1"/>
+    <col min="32" max="32" width="20.4765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.65">
       <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
@@ -692,7 +704,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -790,15 +802,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="46" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="46" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -810,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3">
         <v>398</v>
@@ -819,37 +831,37 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>49</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
         <v>50</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>51</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -858,22 +870,22 @@
         <v>1</v>
       </c>
       <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
         <v>52</v>
       </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>53</v>
-      </c>
       <c r="AE3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.65"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="Z1:AA1"/>
@@ -894,45 +906,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24D27DA-234B-4807-B473-0CCA3FD3940C}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="2" max="2" width="45.3515625" customWidth="1"/>
-    <col min="3" max="3" width="10.703125" customWidth="1"/>
-    <col min="5" max="5" width="12.234375" customWidth="1"/>
-    <col min="6" max="6" width="11.46875" customWidth="1"/>
-    <col min="7" max="7" width="12.1171875" customWidth="1"/>
-    <col min="8" max="8" width="21.76171875" customWidth="1"/>
+    <col min="2" max="2" width="45.34765625" customWidth="1"/>
+    <col min="3" max="3" width="10.6953125" customWidth="1"/>
+    <col min="5" max="5" width="12.21484375" customWidth="1"/>
+    <col min="6" max="6" width="11.4765625" customWidth="1"/>
+    <col min="7" max="7" width="12.12890625" customWidth="1"/>
+    <col min="8" max="8" width="21.73828125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.05859375" customWidth="1"/>
-    <col min="11" max="11" width="14.64453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.64453125" customWidth="1"/>
-    <col min="13" max="13" width="15.52734375" customWidth="1"/>
-    <col min="14" max="14" width="11.29296875" customWidth="1"/>
-    <col min="15" max="15" width="12.703125" customWidth="1"/>
-    <col min="16" max="16" width="20.234375" customWidth="1"/>
-    <col min="17" max="17" width="25.5859375" customWidth="1"/>
-    <col min="18" max="18" width="18.8203125" customWidth="1"/>
-    <col min="19" max="19" width="23.703125" customWidth="1"/>
-    <col min="20" max="20" width="11.1171875" customWidth="1"/>
-    <col min="21" max="21" width="14.52734375" customWidth="1"/>
-    <col min="22" max="22" width="17.05859375" customWidth="1"/>
-    <col min="23" max="23" width="20.234375" customWidth="1"/>
-    <col min="24" max="24" width="25.17578125" customWidth="1"/>
+    <col min="10" max="10" width="11.04296875" customWidth="1"/>
+    <col min="11" max="11" width="14.6484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6484375" customWidth="1"/>
+    <col min="13" max="13" width="15.51953125" customWidth="1"/>
+    <col min="14" max="14" width="11.30078125" customWidth="1"/>
+    <col min="15" max="15" width="12.6953125" customWidth="1"/>
+    <col min="16" max="16" width="20.21484375" customWidth="1"/>
+    <col min="17" max="17" width="25.5625" customWidth="1"/>
+    <col min="18" max="18" width="18.82421875" customWidth="1"/>
+    <col min="19" max="19" width="23.6953125" customWidth="1"/>
+    <col min="20" max="20" width="11.12890625" customWidth="1"/>
+    <col min="21" max="21" width="14.51953125" customWidth="1"/>
+    <col min="22" max="22" width="17.04296875" customWidth="1"/>
+    <col min="23" max="23" width="20.21484375" customWidth="1"/>
+    <col min="24" max="24" width="25.171875" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
     <col min="26" max="26" width="34" customWidth="1"/>
-    <col min="27" max="27" width="28.703125" customWidth="1"/>
-    <col min="29" max="29" width="16.234375" customWidth="1"/>
-    <col min="30" max="30" width="26.46875" customWidth="1"/>
-    <col min="31" max="31" width="27.234375" customWidth="1"/>
+    <col min="27" max="27" width="28.6953125" customWidth="1"/>
+    <col min="30" max="30" width="16.21484375" customWidth="1"/>
+    <col min="31" max="32" width="26.4765625" customWidth="1"/>
+    <col min="33" max="33" width="27.21484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.65">
       <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
@@ -969,13 +981,14 @@
         <v>36</v>
       </c>
       <c r="AA1" s="2"/>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
     </row>
-    <row r="2" spans="1:32" ht="14.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1061,27 +1074,33 @@
         <v>7</v>
       </c>
       <c r="AC2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1129,12 +1148,18 @@
         <v>1</v>
       </c>
       <c r="AC3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE3">
+        <v>54</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
         <v>0</v>
       </c>
     </row>
@@ -1143,7 +1168,7 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
